--- a/Resources/2000/Basic_Percentile_2000.xlsx
+++ b/Resources/2000/Basic_Percentile_2000.xlsx
@@ -1384,7 +1384,7 @@
     <t>Tim Duncan</t>
   </si>
   <si>
-    <t>Grant Hill*</t>
+    <t>Grant Hill</t>
   </si>
   <si>
     <t>Shareef Abdur-Rahim</t>
@@ -1396,16 +1396,16 @@
     <t>Lamar Odom</t>
   </si>
   <si>
-    <t>Karl Malone*</t>
+    <t>Karl Malone</t>
   </si>
   <si>
     <t>Eddie Jones</t>
   </si>
   <si>
-    <t>Jason Kidd*</t>
-  </si>
-  <si>
-    <t>David Robinson*</t>
+    <t>Jason Kidd</t>
+  </si>
+  <si>
+    <t>David Robinson</t>
   </si>
   <si>
     <t>Paul Pierce</t>
@@ -1417,13 +1417,13 @@
     <t>Vlade Divac</t>
   </si>
   <si>
-    <t>Tracy McGrady*</t>
+    <t>Tracy McGrady</t>
   </si>
   <si>
     <t>Donyell Marshall</t>
   </si>
   <si>
-    <t>Shaquille O'Neal*</t>
+    <t>Shaquille O'Neal</t>
   </si>
   <si>
     <t>Michael Finley</t>
@@ -1444,7 +1444,7 @@
     <t>Toni Kukoc</t>
   </si>
   <si>
-    <t>Scottie Pippen*</t>
+    <t>Scottie Pippen</t>
   </si>
   <si>
     <t>Terrell Brandon</t>
@@ -1453,7 +1453,7 @@
     <t>Elton Brand</t>
   </si>
   <si>
-    <t>Gary Payton*</t>
+    <t>Gary Payton</t>
   </si>
   <si>
     <t>Rasheed Wallace</t>
@@ -1525,7 +1525,7 @@
     <t>Charles Oakley</t>
   </si>
   <si>
-    <t>Alonzo Mourning*</t>
+    <t>Alonzo Mourning</t>
   </si>
   <si>
     <t>Brent Barry</t>
@@ -1543,13 +1543,13 @@
     <t>Shandon Anderson</t>
   </si>
   <si>
-    <t>Allen Iverson*</t>
-  </si>
-  <si>
-    <t>Arvydas Sabonis*</t>
-  </si>
-  <si>
-    <t>Ray Allen*</t>
+    <t>Allen Iverson</t>
+  </si>
+  <si>
+    <t>Arvydas Sabonis</t>
+  </si>
+  <si>
+    <t>Ray Allen</t>
   </si>
   <si>
     <t>Bryon Russell</t>
@@ -1558,7 +1558,7 @@
     <t>Mike Bibby</t>
   </si>
   <si>
-    <t>Hakeem Olajuwon*</t>
+    <t>Hakeem Olajuwon</t>
   </si>
   <si>
     <t>P.J. Brown</t>
@@ -1582,7 +1582,7 @@
     <t>Vin Baker</t>
   </si>
   <si>
-    <t>Patrick Ewing*</t>
+    <t>Patrick Ewing</t>
   </si>
   <si>
     <t>Sam Cassell</t>
@@ -1615,13 +1615,13 @@
     <t>Cuttino Mobley</t>
   </si>
   <si>
-    <t>John Stockton*</t>
+    <t>John Stockton</t>
   </si>
   <si>
     <t>Oliver Miller</t>
   </si>
   <si>
-    <t>Charles Barkley*</t>
+    <t>Charles Barkley</t>
   </si>
   <si>
     <t>Shawn Marion</t>
@@ -1657,7 +1657,7 @@
     <t>Shawn Bradley</t>
   </si>
   <si>
-    <t>Dikembe Mutombo*</t>
+    <t>Dikembe Mutombo</t>
   </si>
   <si>
     <t>Nick Van Exel</t>
@@ -1699,10 +1699,10 @@
     <t>Joe Smith</t>
   </si>
   <si>
-    <t>Reggie Miller*</t>
-  </si>
-  <si>
-    <t>Mitch Richmond*</t>
+    <t>Reggie Miller</t>
+  </si>
+  <si>
+    <t>Mitch Richmond</t>
   </si>
   <si>
     <t>Tyrone Hill</t>
@@ -1918,7 +1918,7 @@
     <t>Jon Barry</t>
   </si>
   <si>
-    <t>Steve Nash*</t>
+    <t>Steve Nash</t>
   </si>
   <si>
     <t>Erick Dampier</t>
@@ -2338,7 +2338,7 @@
     <t>Matt Bullard</t>
   </si>
   <si>
-    <t>Dennis Rodman*</t>
+    <t>Dennis Rodman</t>
   </si>
   <si>
     <t>Kevin Ollie</t>
@@ -2398,7 +2398,7 @@
     <t>Tim Young</t>
   </si>
   <si>
-    <t>Chris Mullin*</t>
+    <t>Chris Mullin</t>
   </si>
   <si>
     <t>Elliot Perry</t>
